--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2857323.092203279</v>
+        <v>2852119.75874296</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223173</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7620970.027789142</v>
+        <v>7619200.089617886</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>184.8434918012125</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.367003395656</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>21.24059023833965</v>
+        <v>74.86702424530326</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>55.24675346159202</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>78.672419025143</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779048</v>
       </c>
       <c r="I5" t="n">
-        <v>113.2100733085281</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794333</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899962</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.21624958924099</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>159.807606460819</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384554</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>131.6657421126911</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507331</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1610,22 +1610,22 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173252</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>169.8072968990193</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422876573</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059378</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.000346141574</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752493</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453486</v>
+        <v>20.9239119118956</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443498</v>
+        <v>48.81858568179572</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.7695671504633</v>
+        <v>67.32610467782405</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074571</v>
+        <v>52.47323292810646</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258544</v>
+        <v>38.04694813994618</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546455</v>
+        <v>37.97339019282529</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523181</v>
+        <v>39.72284161259256</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762395</v>
+        <v>50.5416795349847</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419599</v>
+        <v>37.89393170155674</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536792</v>
+        <v>15.73364728272867</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982384</v>
+        <v>6.632145647184586</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535116</v>
+        <v>84.7580891527119</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865931</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215699</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409218</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175981</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3743,7 +3743,7 @@
         <v>292.7769070118669</v>
       </c>
       <c r="D41" t="n">
-        <v>244.7604046238859</v>
+        <v>1.098310803920469</v>
       </c>
       <c r="E41" t="n">
         <v>302.0908501643891</v>
@@ -3755,10 +3755,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822798</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812809</v>
+        <v>68.38158003812811</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
         <v>242.218901733285</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
         <v>289.0912395460419</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415642</v>
+        <v>86.88909903415643</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443882</v>
+        <v>72.03622728443884</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627855</v>
+        <v>57.60994249627856</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915766</v>
+        <v>57.53638454915767</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892493</v>
+        <v>59.28583596892494</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131706</v>
+        <v>70.10467389131708</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788911</v>
+        <v>57.45692605788912</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906104</v>
+        <v>35.29664163906105</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351695</v>
+        <v>26.19514000351697</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U43" t="n">
         <v>186.1175643702862</v>
@@ -3980,7 +3980,7 @@
         <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252671</v>
+        <v>41.58521707214932</v>
       </c>
       <c r="E44" t="n">
         <v>302.0908501643891</v>
@@ -3992,10 +3992,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822797</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812809</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>112.3339573144651</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
         <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
         <v>289.0912395460419</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>644.3532237143218</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="C2" t="n">
-        <v>251.1777222172523</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="D2" t="n">
-        <v>64.46712443824975</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="E2" t="n">
-        <v>64.46712443824975</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="F2" t="n">
-        <v>51.61309000863158</v>
+        <v>777.7441318441284</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703881</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K2" t="n">
-        <v>187.1405114458669</v>
+        <v>242.202127193282</v>
       </c>
       <c r="L2" t="n">
-        <v>680.4608031643958</v>
+        <v>735.5224189118109</v>
       </c>
       <c r="M2" t="n">
-        <v>810.4869444322347</v>
+        <v>1236.689201907261</v>
       </c>
       <c r="N2" t="n">
-        <v>1336.30983382809</v>
+        <v>1236.689201907261</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720418</v>
+        <v>1676.728802799589</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.544013137462</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T2" t="n">
-        <v>2086.544013137462</v>
+        <v>1596.9092237171</v>
       </c>
       <c r="U2" t="n">
-        <v>1830.791283572061</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V2" t="n">
-        <v>1830.791283572061</v>
+        <v>999.0496848552174</v>
       </c>
       <c r="W2" t="n">
-        <v>1830.791283572061</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="X2" t="n">
-        <v>1441.338678505118</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1044.847969425719</v>
+        <v>790.5981662737466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163353</v>
+        <v>657.7430775364678</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764275</v>
+        <v>507.08884709656</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979078</v>
+        <v>376.9998797180403</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087955</v>
+        <v>240.5533888289281</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019192734</v>
+        <v>116.1215827120599</v>
       </c>
       <c r="G3" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173059</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="N3" t="n">
-        <v>1373.651552706069</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.17183529705</v>
+        <v>1384.929834659823</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.17183529705</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750005</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649874</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848782</v>
+        <v>1689.084762927953</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527424</v>
+        <v>1479.021619606595</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898491</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031778</v>
+        <v>1026.364372110949</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817893</v>
+        <v>837.0572944609605</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572966</v>
+        <v>657.7430775364678</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.2626524629031</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>679.2626524629031</v>
+        <v>70.87659607252027</v>
       </c>
       <c r="D4" t="n">
-        <v>523.6295393654178</v>
+        <v>70.87659607252027</v>
       </c>
       <c r="E4" t="n">
-        <v>368.0707272246203</v>
+        <v>70.87659607252027</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7447924375933</v>
+        <v>70.87659607252027</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703881</v>
+        <v>70.87659607252027</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703881</v>
+        <v>70.87659607252027</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703881</v>
+        <v>70.87659607252027</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>864.4706711542044</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.4706711542044</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>985.444662764663</v>
+        <v>551.209143373359</v>
       </c>
       <c r="C5" t="n">
-        <v>985.444662764663</v>
+        <v>551.209143373359</v>
       </c>
       <c r="D5" t="n">
-        <v>985.444662764663</v>
+        <v>551.209143373359</v>
       </c>
       <c r="E5" t="n">
-        <v>582.8611378812075</v>
+        <v>551.209143373359</v>
       </c>
       <c r="F5" t="n">
-        <v>165.9666994111852</v>
+        <v>538.3551089437408</v>
       </c>
       <c r="G5" t="n">
-        <v>156.8443479395925</v>
+        <v>125.1923534317439</v>
       </c>
       <c r="H5" t="n">
-        <v>156.8443479395925</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733288</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>625.6413842912863</v>
+        <v>990.7164596631909</v>
       </c>
       <c r="M5" t="n">
-        <v>625.6413842912863</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687141</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.50387457947</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710992</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.53692685194</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.53692685194</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.53692685194</v>
+        <v>1596.9092237171</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.53692685194</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V5" t="n">
-        <v>1782.430117555459</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.430117555459</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.430117555459</v>
+        <v>951.7038890847558</v>
       </c>
       <c r="Y5" t="n">
-        <v>1385.93940847606</v>
+        <v>951.7038890847558</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622196</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223118</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437921</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>318.8743002546798</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378117</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.38267620967609</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512721</v>
+        <v>74.38267620967609</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703881</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>362.2298845992652</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>845.7959704975785</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>845.7959704975785</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896712</v>
+        <v>1458.085323074339</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580652</v>
+        <v>1619.294926214714</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.17183529705</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.53692685194</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.53692685194</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927953</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606595</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.481617977662</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327674</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.8603234031809</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>521.7821556168968</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="C7" t="n">
-        <v>521.7821556168968</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="D7" t="n">
-        <v>521.7821556168968</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="E7" t="n">
-        <v>366.2233434760993</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760993</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>708.2187092468254</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>708.2187092468254</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>706.9901743081981</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>706.9901743081981</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1803.731934657886</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1803.731934657886</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2204.226680369282</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>2204.226680369282</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>2204.226680369282</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463903</v>
       </c>
       <c r="E11" t="n">
-        <v>974.833763878426</v>
+        <v>656.6116896536171</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955921</v>
+        <v>334.6579324707832</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707836</v>
+        <v>334.6579324707832</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244622</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5072,19 +5072,19 @@
         <v>2905.823590280621</v>
       </c>
       <c r="U11" t="n">
-        <v>2905.823590280621</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2905.823590280621</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2772.827891176893</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.315967397138</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>318.9689542635005</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>802.5350401618138</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
         <v>234.1241141445331</v>
@@ -5197,7 +5197,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5206,19 +5206,19 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
@@ -5230,7 +5230,7 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
@@ -5239,10 +5239,10 @@
         <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1681.115887455785</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="C14" t="n">
-        <v>1382.881067245904</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D14" t="n">
-        <v>1092.38061974976</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>784.7377761534929</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>462.784018970659</v>
+        <v>423.7376375492708</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
         <v>565.7512566404055</v>
@@ -5288,7 +5288,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.823590280621</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2858.790257196483</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2582.731903451959</v>
+        <v>2221.787060248589</v>
       </c>
       <c r="X14" t="n">
-        <v>2288.219979672204</v>
+        <v>1927.275136468834</v>
       </c>
       <c r="Y14" t="n">
-        <v>1986.669951879994</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082782</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979813</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
         <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,7 +5434,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5443,7 +5443,7 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5452,7 +5452,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5464,22 +5464,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852105</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592136</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924338</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5601,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.973980501895</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
         <v>2380.454662679751</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6069,19 +6069,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6139,34 +6139,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9691711012525</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750523</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133163</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6254,22 +6254,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746015</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904108</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662627</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6549,13 +6549,13 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192011</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144927</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423744</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267665</v>
+        <v>87.6854793020992</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193354</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2139.307231719907</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2687.837340252621</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3144.515340024529</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152273</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152273</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491228</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448549</v>
+        <v>3171.900284432041</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281051</v>
+        <v>3033.349407216704</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270287</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.64726758864</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079626</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304547</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452719</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>871.8478593435852</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="M33" t="n">
-        <v>871.8478593435852</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1527.625830554144</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>2044.146113145125</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590206</v>
+        <v>341.687256555478</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229138</v>
+        <v>288.6839909715321</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233326</v>
+        <v>250.2527302241117</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804391</v>
+        <v>211.8957704333791</v>
       </c>
       <c r="F34" t="n">
-        <v>193.289744491316</v>
+        <v>171.7716879964169</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886656</v>
+        <v>120.7194864459273</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806358</v>
+        <v>82.44278775748613</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304547</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929873</v>
+        <v>148.3852558545707</v>
       </c>
       <c r="L34" t="n">
-        <v>422.9958160071728</v>
+        <v>312.5128957283705</v>
       </c>
       <c r="M34" t="n">
-        <v>717.7779019858226</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>1009.458043657418</v>
+        <v>810.713451354371</v>
       </c>
       <c r="O34" t="n">
-        <v>1280.653318339511</v>
+        <v>1088.287753884378</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022245</v>
+        <v>1323.033455149255</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392296</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422777</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003231</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569369</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209174</v>
+        <v>947.3881441448267</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279018</v>
+        <v>798.6106513157158</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569834</v>
+        <v>632.4821015969583</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378705</v>
+        <v>515.6036317300062</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524179</v>
+        <v>409.6934228967144</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
@@ -6953,13 +6953,13 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O37" t="n">
-        <v>969.324157721467</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7257,7 @@
         <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>802.5350401618138</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
         <v>802.5350401618138</v>
@@ -7336,13 +7336,13 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296507</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1772.044870492822</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C41" t="n">
-        <v>1476.310620985886</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1229.077889042567</v>
+        <v>1043.331955516593</v>
       </c>
       <c r="E41" t="n">
-        <v>923.9356161492444</v>
+        <v>738.1896826232704</v>
       </c>
       <c r="F41" t="n">
-        <v>604.4824296693553</v>
+        <v>418.7364961433812</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474917</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,19 +7442,19 @@
         <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2910.82473168651</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2666.159174380161</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W41" t="n">
-        <v>2666.159174380161</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2374.147821303352</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>2075.098364214086</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1521.202330875214</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2037.722613466195</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344864</v>
+        <v>475.5803720344865</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906088</v>
+        <v>402.8165060906089</v>
       </c>
       <c r="D43" t="n">
         <v>344.6246449832568</v>
@@ -7561,22 +7561,22 @@
         <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690445</v>
+        <v>97.77230107690447</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016744069</v>
       </c>
       <c r="K43" t="n">
-        <v>305.184768367679</v>
+        <v>245.5691623529121</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022414</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308019</v>
+        <v>786.9927227160349</v>
       </c>
       <c r="N43" t="n">
         <v>1065.684527822774</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1853.707880260104</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1557.973630753168</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.973753959968</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>964.8314810666461</v>
+        <v>697.2938177058682</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867574</v>
+        <v>377.8406312259792</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648937</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2992.487741453792</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2747.822184147443</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2747.822184147443</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2455.810831070633</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>2156.761373981367</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>802.5350401618138</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7979,16 +7979,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>200.6887348820977</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>281.064588231908</v>
+        <v>655.9541253305051</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507692</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8058,7 +8058,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8067,13 +8067,13 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>504.3020118327149</v>
+        <v>591.6011865869444</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>341.7619605532426</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8219,16 +8219,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>233.5699038900447</v>
+        <v>604.3451443045107</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>655.9541253305051</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507692</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8304,16 +8304,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>208.841015371432</v>
+        <v>591.6011865869444</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>255.5255418589642</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8535,7 +8535,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>349.0412045852374</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095475</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9717,22 +9717,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>196.5449382119064</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10604,7 +10604,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>684.2495388215582</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,10 +10905,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>514.986373519011</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -11139,7 +11139,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11154,7 +11154,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>196.5449382119064</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11373,16 +11373,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>514.986373519011</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -11391,10 +11391,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364589</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>141.6320280943878</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385727</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>145.2325565835411</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.167705931948149e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.213812306131913e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>40.35947340138121</v>
+        <v>284.0215672213466</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822797</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,13 +25682,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531178</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822797</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812809</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>44.39440548505047</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111636</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>663316.6206815763</v>
+        <v>662414.2992609359</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>663316.6206815763</v>
+        <v>662414.2992609359</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631879.3083678042</v>
+        <v>631879.308367804</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>669875.5023032188</v>
+        <v>669875.5023032189</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>669875.5023032189</v>
+        <v>669875.5023032188</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634465.6548972868</v>
+        <v>634465.6548972867</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>631162.6233267487</v>
+        <v>631162.6233267486</v>
       </c>
       <c r="C2" t="n">
-        <v>631162.6233267488</v>
+        <v>631162.6233267485</v>
       </c>
       <c r="D2" t="n">
         <v>631162.6233267488</v>
       </c>
       <c r="E2" t="n">
-        <v>593166.4293913341</v>
+        <v>593166.4293913345</v>
       </c>
       <c r="F2" t="n">
-        <v>593166.4293913343</v>
+        <v>593166.4293913344</v>
       </c>
       <c r="G2" t="n">
-        <v>631162.6233267492</v>
+        <v>631162.623326749</v>
       </c>
       <c r="H2" t="n">
-        <v>631162.6233267491</v>
+        <v>631162.6233267487</v>
       </c>
       <c r="I2" t="n">
-        <v>631162.6233267491</v>
+        <v>631162.6233267488</v>
       </c>
       <c r="J2" t="n">
-        <v>631162.6233267486</v>
+        <v>631162.6233267487</v>
       </c>
       <c r="K2" t="n">
         <v>631162.6233267486</v>
       </c>
       <c r="L2" t="n">
-        <v>631162.6233267499</v>
+        <v>631162.6233267491</v>
       </c>
       <c r="M2" t="n">
-        <v>631162.6233267488</v>
+        <v>631162.623326749</v>
       </c>
       <c r="N2" t="n">
-        <v>631162.6233267491</v>
+        <v>631162.623326749</v>
       </c>
       <c r="O2" t="n">
-        <v>595752.7759208158</v>
+        <v>595752.7759208156</v>
       </c>
       <c r="P2" t="n">
-        <v>595752.7759208156</v>
+        <v>595752.7759208155</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765497</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602657</v>
+        <v>26460.41160941836</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670115</v>
+        <v>46725.80335481256</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436851</v>
+        <v>43782.9719455567</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.5598301568</v>
+        <v>18983.55983015681</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202745.5458432093</v>
+        <v>208555.3986987922</v>
       </c>
       <c r="C4" t="n">
-        <v>202745.5458432093</v>
+        <v>208555.3986987922</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>135951.970348308</v>
+        <v>135951.9703483081</v>
       </c>
       <c r="F4" t="n">
-        <v>135951.970348308</v>
+        <v>135951.9703483081</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>160983.9288015119</v>
+        <v>160850.5341924572</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26454,7 +26454,7 @@
         <v>160556.29099179</v>
       </c>
       <c r="O4" t="n">
-        <v>137626.5862472994</v>
+        <v>137626.5862472993</v>
       </c>
       <c r="P4" t="n">
         <v>137626.5862472994</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814949</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814949</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,25 +26488,25 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446767</v>
+        <v>60332.67530588337</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255071</v>
       </c>
       <c r="P5" t="n">
         <v>55320.40778255072</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184501.2190610392</v>
+        <v>188551.8910684539</v>
       </c>
       <c r="C6" t="n">
-        <v>362496.5161953901</v>
+        <v>358200.8969450034</v>
       </c>
       <c r="D6" t="n">
-        <v>354169.0708525132</v>
+        <v>346432.7816291214</v>
       </c>
       <c r="E6" t="n">
-        <v>271649.2383964048</v>
+        <v>271540.6778423039</v>
       </c>
       <c r="F6" t="n">
-        <v>402102.1695341172</v>
+        <v>401993.608980016</v>
       </c>
       <c r="G6" t="n">
-        <v>383341.6071464252</v>
+        <v>383341.6071464249</v>
       </c>
       <c r="H6" t="n">
-        <v>412436.5630194394</v>
+        <v>412436.5630194391</v>
       </c>
       <c r="I6" t="n">
-        <v>412436.5630194394</v>
+        <v>412436.5630194392</v>
       </c>
       <c r="J6" t="n">
-        <v>184350.9196696895</v>
+        <v>190867.2048242628</v>
       </c>
       <c r="K6" t="n">
         <v>406196.794616656</v>
       </c>
       <c r="L6" t="n">
-        <v>367302.4476840691</v>
+        <v>363253.6104735959</v>
       </c>
       <c r="M6" t="n">
-        <v>369705.2860850706</v>
+        <v>368653.5910738826</v>
       </c>
       <c r="N6" t="n">
-        <v>412436.5630194395</v>
+        <v>412436.5630194393</v>
       </c>
       <c r="O6" t="n">
-        <v>383822.2220608088</v>
+        <v>383721.0510682203</v>
       </c>
       <c r="P6" t="n">
-        <v>402805.7818909655</v>
+        <v>402704.610898377</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="P2" t="n">
         <v>96.46683947023185</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,7 +26808,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443783</v>
@@ -26817,10 +26817,10 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880683</v>
+        <v>831.877684307861</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087643</v>
+        <v>58.4072541935157</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165945</v>
+        <v>14.33013548902014</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.729449787696</v>
+        <v>23.72944978769601</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631</v>
+        <v>85.18305253651727</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559192</v>
+        <v>646.800714275712</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455248</v>
+        <v>129.6883820257323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631</v>
+        <v>85.18305253651727</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>196.7432256942864</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857394</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97.61862951051455</v>
+        <v>43.99219550355095</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.1091850427962</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>153.0670999697037</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27622,19 +27622,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713838</v>
       </c>
       <c r="I5" t="n">
-        <v>23.74367242993171</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026419</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408099</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>230.5232694056057</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>207.4814382205765</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28743,13 +28743,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>35.71049010668821</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>28.01250026485243</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,11 +29217,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>28.01250026485259</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="O26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>30.27223765901272</v>
       </c>
-      <c r="N26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29533,10 +29533,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901255</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29551,10 +29551,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29694,7 +29694,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.75804948161181</v>
+        <v>103.2865954513699</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N34" t="n">
-        <v>109.586371353925</v>
+        <v>13.98970481639273</v>
       </c>
       <c r="O34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>28.92237465268215</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634529461</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30408,16 +30408,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>5.636002634529035</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023185</v>
+        <v>36.24905561693195</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="N43" t="n">
-        <v>36.24905561693183</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023183</v>
       </c>
     </row>
     <row r="44">
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
@@ -34699,16 +34699,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>57.63033170286029</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>131.3395366341808</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129851</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34778,7 +34778,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34787,13 +34787,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>418.9298989785483</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>249.0744016643537</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34939,16 +34939,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>80.32173415955297</v>
+        <v>451.0969745740189</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129851</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>123.4689025172653</v>
+        <v>506.2290737327778</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>162.8379829700754</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>259.444269251904</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553808</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
-        <v>201.4959849287082</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36054,7 +36054,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>192.3607498019313</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>110.6741579516626</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101042</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907922</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36847,10 +36847,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36990,7 +36990,7 @@
         <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611263</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
@@ -37081,13 +37081,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>554.0708166997113</v>
+        <v>560.5142791723505</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605127</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>285.4707364926709</v>
+        <v>289.9992824624291</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>109.4615733925917</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,19 +37230,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759449</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067169</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288838</v>
+        <v>199.0297391913515</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910038</v>
+        <v>280.3780833636431</v>
       </c>
       <c r="P34" t="n">
-        <v>150.0094107906403</v>
+        <v>237.1168699645224</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37318,13 +37318,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565494</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>424.9260266620927</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37704,16 +37704,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37874,7 +37874,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>109.4615733925917</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807277</v>
+        <v>6.174568144772888</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570418</v>
@@ -37947,7 +37947,7 @@
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>221.2890899918906</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
@@ -37956,7 +37956,7 @@
         <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038433</v>
+        <v>99.92360348038432</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>424.9260266620927</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38111,10 +38111,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
